--- a/CAN_Assignments.xlsx
+++ b/CAN_Assignments.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
   <si>
     <t>Go Kart CAN assignments</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Maximum motor temperature</t>
   </si>
   <si>
-    <t>Maximum pump PWM</t>
-  </si>
-  <si>
     <t>Maximum fan PWM</t>
   </si>
   <si>
@@ -213,6 +210,18 @@
   </si>
   <si>
     <t>Analogue throttle 2 inversion</t>
+  </si>
+  <si>
+    <t>Direction (Module out)</t>
+  </si>
+  <si>
+    <t>Tx/Rx</t>
+  </si>
+  <si>
+    <t>Actual voltage</t>
+  </si>
+  <si>
+    <t>Maximum pump speed</t>
   </si>
 </sst>
 </file>
@@ -285,14 +294,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,50 +593,57 @@
     <col min="2" max="2" width="27.42578125" customWidth="1"/>
     <col min="3" max="4" width="6.85546875" customWidth="1"/>
     <col min="5" max="5" width="31.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="7"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="H3" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>1</v>
       </c>
@@ -635,13 +651,13 @@
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>2</v>
       </c>
@@ -652,10 +668,10 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>2</v>
       </c>
@@ -663,18 +679,21 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>1</v>
       </c>
@@ -682,27 +701,27 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>3</v>
       </c>
@@ -710,10 +729,10 @@
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>4</v>
       </c>
@@ -721,71 +740,77 @@
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>1</v>
       </c>
@@ -793,289 +818,321 @@
         <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>2</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="F20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="G20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
         <v>32</v>
       </c>
-      <c r="F22" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C23">
+      <c r="F24" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C29">
         <v>2</v>
       </c>
-      <c r="E23" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="H32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
         <v>12</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="H34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="E28" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C29">
+      <c r="G36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C37">
         <v>3</v>
       </c>
-      <c r="E29" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C30">
+      <c r="E37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C38">
         <v>4</v>
       </c>
-      <c r="E30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="E38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>48</v>
-      </c>
-      <c r="F34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="E35" t="s">
-        <v>53</v>
-      </c>
-      <c r="F35" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="E36" t="s">
-        <v>54</v>
-      </c>
-      <c r="F36" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C37">
-        <v>4</v>
-      </c>
-      <c r="E37" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F37" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="B39" t="s">
         <v>56</v>
       </c>
-      <c r="B38" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>1</v>
+      </c>
       <c r="D40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40" t="s">
         <v>58</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D42">
         <v>3</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E42" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43" t="s">
         <v>60</v>
       </c>
-      <c r="F41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D42">
-        <v>4</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="F43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44" t="s">
         <v>61</v>
       </c>
-      <c r="F42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D43">
-        <v>5</v>
-      </c>
-      <c r="E43" t="s">
-        <v>62</v>
-      </c>
-      <c r="F43" t="s">
-        <v>39</v>
+      <c r="F44" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
